--- a/pred_ohlcv/54_21/2020-01-19 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>44.13820995999999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>42.69270995999999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>43.86120995999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>44.27610995999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>43.13768766999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>44.83208766999999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>39.74610875999999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>53.86562984999999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>46.20021960999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>42.75871960999999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>55.60521960999999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>55.60521960999999</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>52.58361960999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>53.55101960999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>49.42491960999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>52.04221960999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>55.10941960999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>55.10941960999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>53.42431960999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>52.05181960999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>62.60012050999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>57.73662050999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>59.91922050999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>66.34272050999999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>66.34272050999999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>72.63522051</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>71.25252051</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>77.01612050999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>83.14591909999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>80.56751909999998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>80.56751909999998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>82.86881909999998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>82.27989234999998</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>84.44127005999998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>83.91888230999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>82.47228230999998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>86.59998089999998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>85.58658089999997</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>85.58658089999997</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>89.13098089999997</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>99.07728228999997</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>94.86831659999997</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>89.88381370999997</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>92.22073134999997</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>90.33357573999997</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>97.93327381999997</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>97.43197381999997</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>98.53077381999996</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>101.79537382</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>101.79537382</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>102.24532387</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>100.27092387</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>101.09982387</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>99.76352386999997</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>99.61682386999998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>100.81962387</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>99.51722386999997</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>99.51722386999997</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>93.52215911999997</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>90.74857222999997</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>85.79277222999997</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>84.09917222999997</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>94.66571309999996</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>96.54541309999996</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>95.81931309999996</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>111.5831378399999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>108.2677394899999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>111.2667394899999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>114.0788394899999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>112.9348394899999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>111.6740394899999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>110.9485394899999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>111.0474394899999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>111.0474394899999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>111.0290394899999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>106.6799394899999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>107.2595382899999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>105.4479382899999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>105.1711382899999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>106.2071382899999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>102.4224382899999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>100.0848382899999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>101.1513382899999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>109.27919686</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>104.31279686</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>105.30779686</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>105.75289686</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>105.27019686</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>104.13519686</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>104.13519686</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>104.13519686</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>104.13519686</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>102.49129686</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>111.18451921</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>110.79141921</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>101.86961921</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>103.00771921</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>104.55341921</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>102.49271921</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>102.49271921</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>103.97551921</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>103.46131921</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>103.46131921</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>104.00331921</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>103.83871921</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>105.00561921</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>105.31251921</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>104.89271921</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>100.97871921</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>99.09241920999997</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>113.08381921</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>116.77241921</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>117.30381925</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>118.28759751</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>117.17419751</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>116.55229751</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>114.58119753</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>114.97689753</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>117.98179753</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>120.52231927</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>121.96211927</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>117.93941927</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>125.19155679</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>126.95375679</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>111.52450012</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>108.54470012</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>103.32380761</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>104.88820761</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>103.44860761</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>103.23272857</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>103.26822857</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>103.5619253</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>111.72906063</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>112.53997301</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>112.78347301</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>112.78347301</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>113.22367301</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>113.95617301</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>112.40086522</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>110.00566522</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>115.7700249</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>115.7699249</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>116.10932464</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>115.82902464</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>117.28932464</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>90.58954486999993</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>76.30464486999992</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>79.33204486999992</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>74.48924486999992</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>74.48924486999992</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>81.33824484999992</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>87.69934484999993</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>88.14864484999993</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>109.8543391399999</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>107.6623391399999</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>111.0496967099999</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>111.0496967099999</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>107.6382009399999</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>108.0824009399999</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>109.5500953599999</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>116.2114953599999</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>116.2114953599999</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>118.5937240099999</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>116.7418240099999</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>118.2375240099999</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>119.9645240099999</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>124.7748263699999</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>132.8380263699999</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>146.3226263699999</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>152.0625263699999</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>166.8225263699999</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>198.8655375499999</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>201.9093331099999</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>208.0945609699999</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>204.3690314599999</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>215.4051260399999</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>220.9084245599999</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>220.9084245599999</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>218.8511245599999</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>216.1318245599999</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>217.0562169599999</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>213.6979923499999</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>210.4811923499999</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>208.8764923499999</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>210.8231021699999</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>209.1323094899999</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>214.8042168099999</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>210.6937787099999</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>212.9682787099999</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>209.1471787099998</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>209.1471787099998</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>205.8885787099998</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>207.1874787099999</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>206.3613012199999</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>207.4645012199998</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>206.7013012199998</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>208.4910752499998</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>207.2857752499998</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>209.8205159099998</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>210.6741552499998</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>208.6324552499999</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>210.4560186799999</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>209.8692186799998</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>208.1113148099998</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>209.4811148099998</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>206.4839148099998</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>167.2060661399999</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>167.2060661399999</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>168.8167058699999</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>168.2585058699999</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>169.0848058699999</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>171.1274058699999</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>173.0911381499999</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>174.8104890699999</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>176.0663058699999</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>177.7684027399999</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>175.5539194299999</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>175.1518194299999</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>174.4258194299999</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>175.5376578899999</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>175.5376578899999</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>173.0439578899999</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>163.7330007999999</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>70.28198203999987</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>69.15169244999987</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>71.55409244999987</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>74.60460254999987</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>74.60460254999987</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>78.97210254999987</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>76.31530254999987</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>81.43500254999987</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>82.45310254999987</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>85.93980254999987</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>85.93980254999987</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>78.95660254999987</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>77.62650515999988</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>80.11770515999989</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>80.11770515999989</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>82.25136520999989</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>85.3015031599999</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>86.6771031599999</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>89.3448031599999</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>86.3070365399999</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>82.99715630999989</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>81.5324563099999</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>85.13885630999989</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>81.2537662499999</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>84.3293640599999</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>85.61336412999991</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>85.40286639999991</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>86.4883663999999</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>86.4883663999999</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>75.3194685599999</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>72.34696855999991</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>71.69076855999991</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>71.69076855999991</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>71.14696855999991</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>69.28666855999991</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>68.92486855999991</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>66.8067431499999</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>66.5676431899999</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>67.7354418699999</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>67.7354418699999</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>68.6726965299999</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>67.59500267999989</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>67.59500267999989</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>67.59500267999989</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>66.9338026799999</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>65.97795916999991</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>63.91615916999991</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>62.54875916999991</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>64.50445871999992</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>64.33915871999992</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>65.42985871999991</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>64.55885664999991</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>64.93355664999991</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>66.87805664999992</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>66.60255799999992</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>67.04045799999992</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>67.04045799999992</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>71.97975976999992</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>81.55534554999991</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>81.55534554999991</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>81.55534554999991</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>73.10884755999992</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>76.70574755999992</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>85.80214755999992</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>84.04184210999995</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>83.06100816999997</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>82.85770816999997</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>80.95290816999997</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>81.48440816999997</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>80.21770816999997</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>80.43630816999996</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>81.56010648999997</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>84.51450648999997</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>86.81270648999997</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>86.81270648999997</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>88.35070648999996</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>88.35070648999996</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>88.35070648999996</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>101.6313165999999</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>185.2834129799999</v>
       </c>
       <c r="H1296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>180.1831129799999</v>
       </c>
       <c r="H1297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>177.5213129699999</v>
       </c>
       <c r="H1298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>177.5213129699999</v>
       </c>
       <c r="H1299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>175.2538129699998</v>
       </c>
       <c r="H1300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>172.5101129699999</v>
       </c>
       <c r="H1301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>171.7125129699999</v>
       </c>
       <c r="H1302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>171.7125129699999</v>
       </c>
       <c r="H1303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>170.1878129699999</v>
       </c>
       <c r="H1304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>171.7599129699999</v>
       </c>
       <c r="H1306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>171.7599129699999</v>
       </c>
       <c r="H1307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>170.6914744099999</v>
       </c>
       <c r="H1311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>166.2759709499999</v>
       </c>
       <c r="H1314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>165.6016709499999</v>
       </c>
       <c r="H1315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>164.1193709499999</v>
       </c>
       <c r="H1316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>163.2435765999999</v>
       </c>
       <c r="H1318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>157.5462765999999</v>
       </c>
       <c r="H1319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>158.7443765999999</v>
       </c>
       <c r="H1320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>159.9783765599999</v>
       </c>
       <c r="H1322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>159.9783765599999</v>
       </c>
       <c r="H1323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>159.9783765599999</v>
       </c>
       <c r="H1324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>159.1780997999999</v>
       </c>
       <c r="H1326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>157.5162321599999</v>
       </c>
       <c r="H1331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35440,7 +35440,7 @@
         <v>224.4259641899999</v>
       </c>
       <c r="H1348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349" spans="1:8">
@@ -35466,7 +35466,7 @@
         <v>225.4327641899999</v>
       </c>
       <c r="H1349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350" spans="1:8">
@@ -35492,7 +35492,7 @@
         <v>229.3667306299999</v>
       </c>
       <c r="H1350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351" spans="1:8">
@@ -35518,7 +35518,7 @@
         <v>231.8286642199999</v>
       </c>
       <c r="H1351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1352" spans="1:8">
@@ -35544,7 +35544,7 @@
         <v>228.7577642199999</v>
       </c>
       <c r="H1352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1353" spans="1:8">
@@ -35570,7 +35570,7 @@
         <v>225.8033642199999</v>
       </c>
       <c r="H1353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1354" spans="1:8">
@@ -35596,7 +35596,7 @@
         <v>228.5563642199999</v>
       </c>
       <c r="H1354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>44.13820995999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>42.69270995999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>43.86120995999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>44.27610995999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>43.13768766999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>44.83208766999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>39.74610875999999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>53.86562984999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>46.20021960999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>42.75871960999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>55.60521960999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>55.60521960999999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>52.58361960999999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>53.55101960999999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>49.42491960999999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>52.04221960999999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>55.10941960999999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>55.10941960999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>53.42431960999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>52.05181960999999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>62.60012050999999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>57.73662050999999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>59.91922050999999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>66.34272050999999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>66.34272050999999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>72.63522051</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>71.25252051</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>77.01612050999999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>83.14591909999999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>80.56751909999998</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>80.56751909999998</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>82.86881909999998</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>82.27989234999998</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>84.44127005999998</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>83.91888230999999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>82.47228230999998</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>86.59998089999998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>85.58658089999997</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>85.58658089999997</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>89.13098089999997</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>99.07728228999997</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>94.86831659999997</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>89.88381370999997</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>92.22073134999997</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>90.33357573999997</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>97.93327381999997</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>97.43197381999997</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>98.53077381999996</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>101.79537382</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>101.79537382</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>102.24532387</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>100.27092387</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>101.09982387</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>99.76352386999997</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>99.61682386999998</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>100.81962387</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>99.51722386999997</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>99.51722386999997</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>93.52215911999997</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>90.74857222999997</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>85.79277222999997</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>84.09917222999997</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>94.66571309999996</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>96.54541309999996</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>95.81931309999996</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>111.5831378399999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>108.2677394899999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>111.2667394899999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>114.0788394899999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>112.9348394899999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>111.6740394899999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>110.9485394899999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>111.0474394899999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>111.0474394899999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>111.0290394899999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>106.6799394899999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>107.2595382899999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>105.4479382899999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>105.1711382899999</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>106.2071382899999</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>102.4224382899999</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>100.0848382899999</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>101.1513382899999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>109.27919686</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>104.31279686</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>105.30779686</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>105.75289686</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>105.27019686</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>104.13519686</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>104.13519686</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>104.13519686</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>104.13519686</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>102.49129686</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>111.18451921</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>110.79141921</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>101.86961921</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>103.00771921</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>104.55341921</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>102.49271921</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>102.49271921</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>103.97551921</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>103.46131921</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>103.46131921</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>104.00331921</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>103.83871921</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>105.00561921</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>105.31251921</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>104.89271921</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>100.97871921</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>99.09241920999997</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>113.08381921</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>116.77241921</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>117.30381925</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>118.28759751</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>117.17419751</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>116.55229751</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>114.58119753</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>114.97689753</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>117.98179753</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>120.52231927</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>121.96211927</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>117.93941927</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>125.19155679</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>126.95375679</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>111.52450012</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>108.54470012</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>103.32380761</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>104.88820761</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>103.44860761</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>103.23272857</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>103.26822857</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>103.5619253</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>111.72906063</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>112.53997301</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>112.78347301</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>112.78347301</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>113.22367301</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>113.95617301</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>112.40086522</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>110.00566522</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>115.7700249</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>115.7699249</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>116.10932464</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>115.82902464</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>117.28932464</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>90.58954486999993</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>76.30464486999992</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>79.33204486999992</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>74.48924486999992</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>74.48924486999992</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>81.33824484999992</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>87.69934484999993</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>88.14864484999993</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>109.8543391399999</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>107.6623391399999</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>111.0496967099999</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>111.0496967099999</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>107.6382009399999</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>108.0824009399999</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>109.5500953599999</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>116.2114953599999</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>116.2114953599999</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>118.5937240099999</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>116.7418240099999</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>118.2375240099999</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>119.9645240099999</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>124.7748263699999</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>132.8380263699999</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>146.3226263699999</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>152.0625263699999</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>166.8225263699999</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>184.0187901699999</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>183.2029901699999</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>178.1808874099999</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>184.0544873999999</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>186.3219874</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>184.1819766</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>190.1922766</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>194.7803766</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>194.7803766</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>194.3507766</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>193.7837766</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>193.7837766</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>193.7837766</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>194.6197697599999</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>192.7760375499999</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>198.8655375499999</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>201.9093331099999</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>208.0945609699999</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>204.3690314599999</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>215.4051260399999</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>220.9084245599999</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>220.9084245599999</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>218.8511245599999</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>216.1318245599999</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>217.0562169599999</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>213.6979923499999</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>210.4811923499999</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>208.8764923499999</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>210.8231021699999</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>209.1323094899999</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>214.8042168099999</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>210.6937787099999</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>212.9682787099999</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>209.1471787099998</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>209.1471787099998</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>205.8885787099998</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>207.1874787099999</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>206.3613012199999</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>206.3613012199999</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>207.4645012199998</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>206.7013012199998</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>207.8451012399998</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>208.4910752499998</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>207.2857752499998</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>209.8205159099998</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>210.6741552499998</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>208.6324552499999</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>210.4560186799999</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>209.8692186799998</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>213.6514186799998</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>208.0568186799998</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>167.2060661399999</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>167.2060661399999</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>168.8167058699999</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>168.2585058699999</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>169.0848058699999</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>171.1274058699999</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>173.0911381499999</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>174.8104890699999</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>176.0663058699999</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>177.7684027399999</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>175.5539194299999</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>175.1518194299999</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>174.4258194299999</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>175.5376578899999</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>175.5376578899999</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>173.0439578899999</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>163.7330007999999</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>70.28198203999987</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>69.15169244999987</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>71.55409244999987</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>74.60460254999987</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>74.60460254999987</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>78.97210254999987</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>76.31530254999987</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>81.43500254999987</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>82.45310254999987</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>85.93980254999987</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>85.93980254999987</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>78.95660254999987</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>77.62650515999988</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>80.11770515999989</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>80.11770515999989</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>82.25136520999989</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>85.3015031599999</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>86.6771031599999</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>89.3448031599999</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>86.3070365399999</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>82.99715630999989</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>81.5324563099999</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>85.13885630999989</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>81.2537662499999</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>84.3293640599999</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>85.61336412999991</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>85.40286639999991</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>86.4883663999999</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>86.4883663999999</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>75.3194685599999</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>72.34696855999991</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>71.69076855999991</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>71.69076855999991</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>71.14696855999991</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>69.28666855999991</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>68.92486855999991</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>66.8067431499999</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>66.5676431899999</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>67.7354418699999</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>67.7354418699999</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>68.6726965299999</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>67.59500267999989</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>67.59500267999989</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>67.59500267999989</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>66.9338026799999</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>65.97795916999991</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>63.91615916999991</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>62.54875916999991</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>64.50445871999992</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>64.33915871999992</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>65.42985871999991</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>64.55885664999991</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>64.93355664999991</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>66.87805664999992</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>66.60255799999992</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>67.04045799999992</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>67.04045799999992</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>71.97975976999992</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>81.55534554999991</v>
       </c>
       <c r="H985">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>81.55534554999991</v>
       </c>
       <c r="H988">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>81.55534554999991</v>
       </c>
       <c r="H989">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>73.10884755999992</v>
       </c>
       <c r="H992">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>76.70574755999992</v>
       </c>
       <c r="H993">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>85.80214755999992</v>
       </c>
       <c r="H996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>84.04184210999995</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>83.06100816999997</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>82.85770816999997</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>80.95290816999997</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>81.48440816999997</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>80.21770816999997</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>80.43630816999996</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>81.56010648999997</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>84.51450648999997</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>86.81270648999997</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>86.81270648999997</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>88.35070648999996</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>88.35070648999996</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>88.35070648999996</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>101.6313165999999</v>
       </c>
       <c r="H1160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>185.2834129799999</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>180.1831129799999</v>
       </c>
       <c r="H1297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>177.5213129699999</v>
       </c>
       <c r="H1298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>175.2538129699998</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>170.1878129699999</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>164.1193709499999</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>163.2435765999999</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>158.7443765999999</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -35440,7 +35440,7 @@
         <v>224.4259641899999</v>
       </c>
       <c r="H1348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1349" spans="1:8">
@@ -35466,7 +35466,7 @@
         <v>225.4327641899999</v>
       </c>
       <c r="H1349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1350" spans="1:8">
@@ -35492,7 +35492,7 @@
         <v>229.3667306299999</v>
       </c>
       <c r="H1350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1351" spans="1:8">
@@ -35518,7 +35518,7 @@
         <v>231.8286642199999</v>
       </c>
       <c r="H1351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1352" spans="1:8">
@@ -35544,7 +35544,7 @@
         <v>228.7577642199999</v>
       </c>
       <c r="H1352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1353" spans="1:8">
@@ -35570,7 +35570,7 @@
         <v>225.8033642199999</v>
       </c>
       <c r="H1353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1354" spans="1:8">
@@ -35596,7 +35596,7 @@
         <v>228.5563642199999</v>
       </c>
       <c r="H1354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
